--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_50_vs_3_UP0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_50_vs_3_UP0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,43 +38,835 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">CG12239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITP</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRE16</t>
   </si>
   <si>
-    <t xml:space="preserve">up</t>
+    <t xml:space="preserve">Tsf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG16743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DptA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idgf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ced-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR42491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sod3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp99c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa-maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR40469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rac2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wtrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His2B:CG33868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alrm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snoRNA:Psi28S-2179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oatp58Dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4g15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Npc2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DptB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhoGAP18B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galphai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodh-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NimB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msr-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CtsB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNMa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp12a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR17025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cathD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betaggt-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invadolysin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sap-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClC-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA:7SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(1)G0193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalpB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlcAT-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mlt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apolpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jheh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myd88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nAChRbeta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2493</t>
   </si>
   <si>
     <t xml:space="preserve">CG9686</t>
   </si>
   <si>
-    <t xml:space="preserve">Tsf1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG8369</t>
+    <t xml:space="preserve">CG10863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGRP-LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Npc2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spn43Ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp18a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstS1</t>
   </si>
   <si>
     <t xml:space="preserve">MtnA</t>
   </si>
   <si>
-    <t xml:space="preserve">Treh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG31705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG15209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG7607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG9377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG15201</t>
+    <t xml:space="preserve">Nep4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp12e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eEF1alpha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LManII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NimB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hnf4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let-7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wkd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrebA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JhI-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lectin-28C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLaz</t>
   </si>
 </sst>
 </file>
@@ -437,22 +1229,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>38.9116368847904</v>
+        <v>3030.13358968834</v>
       </c>
       <c r="C2" t="n">
-        <v>2.69694749228194</v>
+        <v>6.86057712808121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0608443678348321</v>
+        <v>0.388060627738582</v>
       </c>
       <c r="E2" t="n">
-        <v>44.3253433021618</v>
+        <v>17.6791373246524</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000607181365681727</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000004233268481533</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -463,22 +1255,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>3.02010602711193</v>
+        <v>1231.38270569668</v>
       </c>
       <c r="C3" t="n">
-        <v>1.99905136267924</v>
+        <v>7.71703943614136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.069832117628736</v>
+        <v>0.460367421374327</v>
       </c>
       <c r="E3" t="n">
-        <v>28.626532182616</v>
+        <v>16.762783546029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000314182050532032</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000456731051812287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000138931302745264</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000159216444661763</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -489,22 +1281,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>2.6314806705435</v>
+        <v>28624.649638408</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6356780642448</v>
+        <v>3.42676158834594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0662680821458193</v>
+        <v>0.290218833240182</v>
       </c>
       <c r="E4" t="n">
-        <v>24.6827433551733</v>
+        <v>11.8075093545359</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000163879673830373</v>
+        <v>0.0000000000000000000000000000000356979761860138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000252793924771364</v>
+        <v>0.000000000000000000000000000082962096656296</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -515,22 +1307,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>2.65197476426509</v>
+        <v>1396.13890175966</v>
       </c>
       <c r="C5" t="n">
-        <v>1.34561688008889</v>
+        <v>3.40159066710659</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0600264169349587</v>
+        <v>0.437852379750483</v>
       </c>
       <c r="E5" t="n">
-        <v>22.4170781598863</v>
+        <v>7.76880707841542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000268224498537634</v>
+        <v>0.00000000000000792287306648191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000291661163737726</v>
+        <v>0.0000000000110476542039024</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -541,22 +1333,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>4.12756667630593</v>
+        <v>314.291016982202</v>
       </c>
       <c r="C6" t="n">
-        <v>1.44300134296339</v>
+        <v>5.09848633473929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0669221059037648</v>
+        <v>0.672112425281179</v>
       </c>
       <c r="E6" t="n">
-        <v>21.562401892111</v>
+        <v>7.58576414147728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000405031646876692</v>
+        <v>0.0000000000000330533212162996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000034890583295235</v>
+        <v>0.0000000000329211079314344</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -567,22 +1359,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>2.54640236335224</v>
+        <v>260.136096258118</v>
       </c>
       <c r="C7" t="n">
-        <v>1.38977826504189</v>
+        <v>10.4421642270178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0648018927659467</v>
+        <v>1.45305276998872</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4465690078147</v>
+        <v>7.18636269975168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000491602323317338</v>
+        <v>0.000000000000665401378214229</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000402567680316531</v>
+        <v>0.000000000579897301113701</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -593,22 +1385,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>1.94881911362031</v>
+        <v>1551.16925707417</v>
       </c>
       <c r="C8" t="n">
-        <v>1.08775560315939</v>
+        <v>2.97033859424327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0532339853093433</v>
+        <v>0.460041230926544</v>
       </c>
       <c r="E8" t="n">
-        <v>20.4334805451524</v>
+        <v>6.45667908561342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000842752439358369</v>
+        <v>0.000000000107025514513648</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000532378755263244</v>
+        <v>0.0000000829090985765729</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -619,22 +1411,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>2.90700749836151</v>
+        <v>280.592647673134</v>
       </c>
       <c r="C9" t="n">
-        <v>1.31391504787441</v>
+        <v>4.61478673755993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0644599596295876</v>
+        <v>0.725704261338213</v>
       </c>
       <c r="E9" t="n">
-        <v>20.3834295805441</v>
+        <v>6.35904594118019</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000234625785693799</v>
+        <v>0.000000000203010688855613</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000145446059486633</v>
+        <v>0.000000141539052270133</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -645,22 +1437,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>3.14472886456016</v>
+        <v>376.973917623407</v>
       </c>
       <c r="C10" t="n">
-        <v>1.197472109839</v>
+        <v>3.20783212582196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0637507090969963</v>
+        <v>0.509616429133747</v>
       </c>
       <c r="E10" t="n">
-        <v>18.7836673003441</v>
+        <v>6.2946010811988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000102733194266088</v>
+        <v>0.000000000308191396029951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000497393633260554</v>
+        <v>0.000000195337310283711</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -671,22 +1463,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>2.31086681754524</v>
+        <v>563.792476275959</v>
       </c>
       <c r="C11" t="n">
-        <v>1.02275239141061</v>
+        <v>3.99518967396707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0567115059588072</v>
+        <v>0.647729510235358</v>
       </c>
       <c r="E11" t="n">
-        <v>18.0343014017913</v>
+        <v>6.16799082153194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000104811659348716</v>
+        <v>0.000000000691631578685716</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000466587742590626</v>
+        <v>0.000000401837947216401</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -697,22 +1489,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1.76698881842501</v>
+        <v>209.288403883869</v>
       </c>
       <c r="C12" t="n">
-        <v>1.02922379204603</v>
+        <v>5.28869975075971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0602496680167736</v>
+        <v>0.885793126146103</v>
       </c>
       <c r="E12" t="n">
-        <v>17.0826466920862</v>
+        <v>5.9705811601516</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000199844548224083</v>
+        <v>0.00000000236409942539877</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000744701622679967</v>
+        <v>0.00000126788470722156</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -723,24 +1515,6888 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>2.64826240501403</v>
+        <v>78.5846999263708</v>
       </c>
       <c r="C13" t="n">
-        <v>1.06525791346838</v>
+        <v>10.1179348826529</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0672383738418552</v>
+        <v>1.71986758266796</v>
       </c>
       <c r="E13" t="n">
-        <v>15.8430053048854</v>
+        <v>5.88297319201598</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000157128237428796</v>
+        <v>0.00000000402961215094001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000480291059384887</v>
+        <v>0.00000187296372775691</v>
       </c>
       <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>621.3474102614</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.35684224215089</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.40056837539873</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.88374516536625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00000000401085242271951</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00000187296372775691</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>224.07650988627</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.20205761142609</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.744677576694631</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.64278788959591</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000016731843090844</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00000729090062683528</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>211.506727536528</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.07402581858711</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.546642745273821</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.62346403599903</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0000000187165743506097</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.00000752475733973547</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>583.759583004139</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.72411155754838</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.494683031715619</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.50678188435298</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000000365452587904179</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0000134101865414102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74.3738862951731</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.22769158311108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.00292804093901</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.21242937650495</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.000000186383533357102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0000649732997282858</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>86.9551695590585</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.44838079602001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.866319156588997</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.13480599174887</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.000000282435222699143</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0000937684939361153</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>191.782783774325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.82644927743205</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.560935083997029</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.03881707182897</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.000000468417912005365</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000148445894659155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60.0338411740368</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.33279913756926</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.6744150177136</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.97654347901611</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.000000647297418049968</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.000190639393249242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73.7594831063724</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.60378694504664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.926137905276686</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.97095186237005</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000000666249913954808</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000190639393249242</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>699.513286609449</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.65064426053981</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.735132334260299</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.96596883364291</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.000000683589333223041</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000190639393249242</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n">
+        <v>44.9414098620459</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.31172803875979</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.8896271592205</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.92781234293912</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000000831554250270909</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.000222984470495722</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>176.442291003985</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.85592047088622</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.582467336849992</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.90314270038069</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000000943154162768624</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000243543363808254</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>59.8675865902868</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.46262434021566</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.32349927267225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.88298291782746</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00000104492926500789</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.000260187386986964</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>58.0240099879476</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.2123943924973</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.69439772019766</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.84679263587493</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00000125473455357065</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.000294380769678628</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>123.741072755688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.36390041544934</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.695079066685477</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.83959390618723</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0000013010470460934</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000294380769678628</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>168.493341985973</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.89003175865778</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.597312146898136</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.83839442018017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00000130892195353377</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.000294380769678628</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>149.222740774138</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.2470437471863</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.674361635284444</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.81498883876558</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00000147208117777386</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00032072968660748</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>86.5948435695854</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.86675026346056</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.01801262542921</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.78063841438967</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00000174739401427223</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.000369176699015333</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>57.2138040783177</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.12773133286534</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.08653001074872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.71936465825905</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0000023658238728418</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.000485133060042737</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>606.158468236316</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.7283918845681</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.579603491815973</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.70734204174598</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00000250967611259975</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00049992748162987</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48.986790705154</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.04059092442377</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.73235538506084</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.64142115051145</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00000346021060848152</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.000670127454509255</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>238.843927831184</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.39020816887012</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.517784025598883</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.61622616902007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00000390781060884391</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.000736358258509723</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>459.110432812054</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.26466435390891</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.71102535240056</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.59148797280823</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00000440097008017437</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.000799886889953966</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>262.324788275012</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.73428368278481</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.595959844937643</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.58803341535687</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00000447441031385609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.000799886889953966</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>178.410530655343</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.39870142632755</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.742511037274449</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.57730761660222</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00000470998605613985</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.000820950569585176</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1424.08702030072</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.08182406914747</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.678585641278051</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.54154034757227</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00000558446952535811</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.000949632232458457</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>68.6841064769817</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.78251648309474</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.05483959788653</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.53388031002717</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00000579098523232006</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.000961303548565129</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2658.88101909766</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.18081240197406</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.58740650783415</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.5236128027291</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.00000607928952441732</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.000985693175912501</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>51.4687576521174</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.87919657551436</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.082507136907</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.50731123071896</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00000656542960622951</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.00104032216396891</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>87.0947961524328</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.61871290984522</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.822530088722501</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.39949001192839</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0000108505571051606</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00160957625823787</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>353.485110844533</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.49496526107544</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.792941499106381</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.40759534595447</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0000104524592461994</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.00160957625823787</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>117.448378747145</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.19710375255527</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.738637647228751</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.32837909704479</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0000150210754123125</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.00218181120363839</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>137.37323145171</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.75156401582592</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.870972940704201</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.30732556719007</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0000165240310770309</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.00235113356467469</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>83.2482259006433</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.34079455696397</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.01109773478781</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.29315031338187</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0000176155660681924</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.00240815150249878</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>163.320285418181</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.72940762784073</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.868001893280131</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.29654319502404</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0000173482176206948</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.00240815150249878</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>234.161800234772</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.24779544786013</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.530953079241351</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.23351052238341</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0000230071412406704</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.00308472670634527</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4101.19374488274</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.28680307882049</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.30607659147401</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.20418651626861</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0000262022808899928</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.00344683589367981</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>815.708233836457</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.51353398854835</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.368881222431544</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.10303885508629</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0000407758738052244</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.00526461837351897</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>132.378927625044</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.82417378516606</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.18790006028184</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.0610939812744</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0000488433032171485</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.00608099125053498</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>50.6345645866639</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.67684591766211</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.40755283650193</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.03313166685117</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.000055038420668615</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.00661599773968248</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52.3903185734255</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.15707621578951</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.03297207929466</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.02438391038419</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0000571246641948568</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.00675039252146681</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>279.664975596467</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.94745797754002</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.986232146595596</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.00256470159319</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0000626595243935886</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0071616754765918</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>746.481713783458</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.32416117660984</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.583291916230106</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.9845592094456</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0000676054994584037</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.00760234745522566</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>150.293406660012</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.84164142738998</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.969518991668953</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.96241998393129</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0000741938767631025</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.00816071408393073</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>194.334159077993</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.2218329959851</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.571108671609228</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.89038567690557</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.000100085021583695</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0105726177345685</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>534.851260014241</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.61526774921311</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.418133825286528</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.86304013578963</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.000111984600114463</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0116530840596722</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>34.5353028485537</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.13176818034685</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.33051596788793</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.85697601847879</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.000114798420251669</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0117702144999211</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>310.583447341592</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.08401093317719</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.802083809468271</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.84499836148256</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.000120553244051606</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0120071031075399</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>98.309290036663</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.91188962160402</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.758468531564934</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.83916998586081</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.000123450941224728</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0121225346791381</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>35.3167824167646</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.92337175778729</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.28873946524964</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.82030029384845</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.000133289292008896</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0127300403272057</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>59.7856919919021</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.09013574994062</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.07257023749553</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.81339664942703</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.000137069859741663</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0129142035421469</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>382.60087959097</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.10492705889312</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.554365957446141</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.79699913138628</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000146458302381227</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0135696412619506</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>512.750668969484</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.73447919462831</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.45709903072168</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.79453702163812</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.000147919210543352</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0135696412619506</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>135.123010055266</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.39767254376682</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.632861052513498</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.78862395504373</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.000151484006055978</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0137161881847049</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>372.678675889347</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.3444019305359</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.621355570908716</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.77304403516858</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.000161267810695789</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0140544897021381</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>151.963536021719</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.3740165144348</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.630803127448212</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.76348247358635</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.000167563475623085</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0144228710128907</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>239.297258465858</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.8103301031128</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.02424653979785</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.72012982720433</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00019912039432317</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0164813562621893</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>60.9287741049692</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.69736225526248</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.993535621665417</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.72141891507097</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00019810647965966</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0164813562621893</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>338.569792907446</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.88340400350607</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.775443746205611</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.71839223362764</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.000200494791734346</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0164813562621893</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>128.051022553341</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.65338192563554</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.713689360802093</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.71783870037447</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00020093449258263</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0164813562621893</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>37.605954513388</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.9080053996338</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.32846740607106</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.69448687804033</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.000220331270880332</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.017656892190548</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>815.568448025129</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.69940854957693</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.73052948394541</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.69513977040062</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.000219765859440875</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.017656892190548</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>27.3948284250649</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.20506477323823</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.95629421190601</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.68301696615375</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.000230489812685545</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0180621761331695</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>45.2781157316327</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.35931309784454</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.18365404902636</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.68292838725165</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00023056994776995</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0180621761331695</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>34.8429153407842</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.69497778411951</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.27715603637795</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.67611916664042</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.000236808937102707</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0181432077964843</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>400.679766114307</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.14080110176791</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.854113095866959</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.6772660634361</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.000235747110987419</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0181432077964843</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>102.696203658739</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.53923502788859</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.2368948744919</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.66986323696525</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.000242680271146549</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0181931919401478</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>63.7205396189921</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.55427438696768</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.24268847183193</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.66485606827424</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.000247477719313875</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.018355475096344</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>283.526258136949</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.75327204251696</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.481540687123709</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.64096345210086</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.000271619696365312</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0199340265585153</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>682.612005307504</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.55032279007544</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.426247604677428</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.63714135414011</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.000275680657418403</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0200213077450115</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>154.202448092386</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.31423421755494</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.918181854521622</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.60956187625999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.000306714606933571</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0220455076241325</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>82.3578567077349</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.60777421733903</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.00387091789654</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.59386267001198</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.000325811609222838</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0224811976334301</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>164.796523046837</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.47478053593488</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.688567153591444</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.59410193040267</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000325512394327934</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0224811976334301</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>189.282127481437</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.12668643373685</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.591401297651013</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.59601245750362</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.000323132331705996</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0224811976334301</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>533.769177472515</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.71861898592354</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.477426361103446</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.59975721062282</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.000318514436777515</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0224811976334301</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>773.431373328649</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.32092944918715</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.369482625497364</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.57507865872997</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.000350122615491634</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0236995618952201</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>21.0898236224126</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8.22021796510213</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.30511485214717</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.56607739412427</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.000362364398630768</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0242923518005165</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>58.7514117797469</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.39019681209986</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.953741577827679</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.55462830908731</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.000378513772840241</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.024984984531051</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>118.676642641238</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.56235023739891</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.721038876885988</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.5536922065356</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00037986350549217</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.024984984531051</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>546.389669623232</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.50824522874243</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.710250861405814</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.53149199112241</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.000413222375184146</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0269251065400361</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>135.309689525147</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.65020643884413</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.762522267725374</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.47557907620163</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.000509751684380912</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0322790498947026</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>162.428918982041</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.54212888632693</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.734903535085262</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.45913275003092</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.000541917740911573</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0337343793717454</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>298.398788017112</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.91250581833882</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.847608904401758</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.43614348930709</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.000590058370671546</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.036086727722123</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>76.8493827414348</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.78693387050492</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.812855504892767</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.42857230310887</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00060676489071223</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0365972615321473</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>643.991389053621</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.36953427939315</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.399558760114443</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.42761670148561</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.000608904523483806</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0365972615321473</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>23.1266498348147</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.96117359109674</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.0403012182846</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.41183621747254</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.000645268707963912</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0384513968540547</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>90.835029890291</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.73516948839689</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.802352198163878</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.40893873620103</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.000652161237206051</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0385327808966152</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>257.096034170878</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.70965788668992</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.501986565131319</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.4057841493082</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.000659743183055428</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0386531888425416</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>73.0589008933146</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.79559503512597</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.823658927659184</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.39411732362445</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.000688501894018777</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.039671365331396</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>122.640583645684</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.50138329551216</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.736498853410608</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.39631661872745</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.000682993055484392</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.039671365331396</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>28.2598461829808</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.94189886381665</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.46162802414684</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.3810920303757</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.000721983571800918</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0409241419723252</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>664.137723737366</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.0329183228403</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.602649495348668</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.37330129458441</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.000742726324155086</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0417603865484618</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>63.8048996043575</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.59244364226608</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.07207223493863</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.35093431691357</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.000805394031827731</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0442142298417555</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>503.16841910751</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.47496580505008</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.740407307472228</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.34270850661872</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.000829650000391372</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0451899984588176</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>56.0423626597689</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.10001273795974</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.932949318194086</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.3228093718536</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.000891157914750066</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0481639766018408</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>226.258914540629</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.92411008966293</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.580363371046692</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.31535411373874</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.000915271005691359</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0490866880898474</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>298.31252126907</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.42124239739507</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.733008501849941</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.30315731848188</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.000956027375532892</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.050881090551262</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>24.7166039975492</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.04490347133406</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.5468889299819</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.26132237005089</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00110893887616179</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0584743285469609</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>104.984378512131</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.74060884129452</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.841155509617976</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.25814764328086</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00112142044900212</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0584743285469609</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>598.846404823667</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.90019262403145</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.583609643853023</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.25593081616381</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00113021287412052</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0584743285469609</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>348.694221319393</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.48694355332216</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.456759369415292</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.25541992762103</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00113224818615028</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0584743285469609</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>107.60997716619</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.9548626822811</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.21855595486752</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.2455322765306</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.00117231274245517</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0595615831019127</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>83.5317635132645</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.40188586807101</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.04935842518011</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.24187216344797</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.00118747275547416</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0595615831019127</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1006.97732107756</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.68869711855162</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.531185762271882</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.1791083995344</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.00147728833356786</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.07304719334493</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>743.733605784797</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.22976022454814</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.386678791249453</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.18031464972385</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00147115217859867</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.07304719334493</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>37.6072310687712</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.03958678151072</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.5921787209045</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.1652142534902</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.00154968792699136</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0755554141747116</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>140.44325290925</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.31246114675786</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.73305162098751</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.15456794658294</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.00160735945131522</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0775136241630572</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1651.69121494981</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.03894489715371</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.329435694426534</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.15371076884141</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.00161208770849732</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0775136241630572</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>52.5029501404869</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.14305886505682</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.997413263280586</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.15121021623374</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.00162595418863611</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0775163473605514</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>171.248913414643</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.805279897093</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.573159278255459</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.1497002065251</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.00163438081784295</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0775163473605514</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>163.08911040766</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.98054115356313</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.631310416734668</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.13719067682598</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00170575155498578</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0803547286578435</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>37.0480944879796</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.75595546419572</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.2069012012044</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.1120653956161</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.00185783339366603</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0857802279512554</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>66.7632867380676</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.29737665004669</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.05841584010382</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.11538860730131</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.00183702717954098</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0857802279512554</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>72.5503794587222</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.66242064039864</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.857520878781094</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.10478812385662</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00190415370774678</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0873405240158589</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>82.3312287173593</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.90774810739012</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.944476765668568</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.07868675343412</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.00207915169773418</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0941288677701472</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>80.9940751985691</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.41891463122559</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.11613557019773</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.06317146636579</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0021900453312859</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0978781798059314</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>56.3850842703343</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.77637590906163</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.23998640025424</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.04549784440163</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.00232295443614762</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.10250404005583</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.420153825603</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.14517541262227</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.6922448437134</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.04044384105309</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.00236229741826036</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.103584513208247</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>18.1052632580498</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.60800593867648</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.17883829657512</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.0328115441442</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.00242286857661243</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.104273084667543</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.3759332697349</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.08361683281899</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.34610034085902</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.03366451137885</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.00241602942586439</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.104273084667543</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>154.425070391957</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.3025574993712</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.759113360705687</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.03321956714172</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.00241959481205632</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.104273084667543</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>122.231916308627</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.79848780673898</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.26296688183523</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.0075909838739</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.00263327286581697</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.112632996444637</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>67.6682524393944</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.68685003496591</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.895129974700728</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.0016311719024</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.00268537317455111</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.11416110837177</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>32.1942390503478</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.94655723282636</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.31774868691271</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.99492404888869</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.00274513186849713</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.115994299316133</v>
+      </c>
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="n">
+        <v>17.6031246003733</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.56735880373709</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.19612324598004</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.99043271626877</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.00278582495111353</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.117004647946768</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="n">
+        <v>70.8382157182549</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.34962763015115</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.12275589009544</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.98339795827427</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.00285067073753323</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.119011235820848</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="n">
+        <v>99.6298483354718</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.3480139041274</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.788551483685398</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.97762917540101</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00290487206576998</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.120552190729454</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="n">
+        <v>335.731800537676</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.08194172618428</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.701888334516913</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.96620078123568</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.00301503584987167</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.124383609143818</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="n">
+        <v>105.87721309202</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.40207008972938</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.812608761212077</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.95599826679999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.00311658842286698</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.127816791083698</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="n">
+        <v>830.705103926985</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.17893549492414</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.399875903982347</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.9482534035764</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.00319574988163669</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.12953934985332</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="n">
+        <v>147.538772807276</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.78444549785527</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.60690891967935</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.94021959472609</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.00327979712068477</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.131418077732266</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="n">
+        <v>115.004353341435</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.55463792351656</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.87047969004639</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.93474730396112</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0033381942219853</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.132993657803894</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="n">
+        <v>105.708405397504</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.31003450671307</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.788487286330191</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.92970419024069</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.00339284818645721</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.134403054295339</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="n">
+        <v>72.9402535852745</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.4726373412876</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.84957765333086</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.91043123791376</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.00360930376898672</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.141371156614468</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="n">
+        <v>188.500105429717</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.69601074710205</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.583306044703646</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.90758301324259</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0036423365719908</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.141867992066591</v>
+      </c>
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="n">
+        <v>269.692735738842</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.464064386069</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.507889348739735</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.88264439823732</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00394352344787537</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.151901908721475</v>
+      </c>
+      <c r="H149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="n">
+        <v>101.359883851304</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.19171042593627</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.760988454242035</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.88008367764169</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.00397569637297535</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.152299753364748</v>
+      </c>
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="n">
+        <v>50.8302795837074</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.93216688033804</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.02652437399771</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.85640258975924</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.00428471457869188</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.162353424144781</v>
+      </c>
+      <c r="H151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="n">
+        <v>89.5762206158875</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.14301099102125</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.759452628183965</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.82178362611729</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.00477573868763517</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.179980811514554</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="n">
+        <v>289.78813167813</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.39820320897247</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.497956928306758</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.80787981749123</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0049868833884736</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.185330388212133</v>
+      </c>
+      <c r="H153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="n">
+        <v>310.352750922183</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.30422161031763</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.46459889974506</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.80719909374149</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.00499743444978214</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.185330388212133</v>
+      </c>
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="n">
+        <v>42.239565314644</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.56798877074807</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.62991505239547</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.80259315602648</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.00506935738055534</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.186878806054185</v>
+      </c>
+      <c r="H155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16.6258423113332</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.36908760846409</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.92024155099687</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.79604803139313</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.00517317115638329</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.188337705626519</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.6467195495633</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.83801048167138</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.3802814232901</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.78059996817383</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.00542585512261067</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.19399518930688</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="n">
+        <v>45.6970832355413</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.99236670661282</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.07561157292076</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.78201423445755</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.00540226706003548</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.19399518930688</v>
+      </c>
+      <c r="H158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="n">
+        <v>208.013929274824</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.74408476038874</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.630012836521374</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.7683321025945</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.00563440084810856</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.198399205621277</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="n">
+        <v>26.6116175417479</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.74614916569156</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.35646161809702</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.7617067196837</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.00575001034160979</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.20145262362665</v>
+      </c>
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="n">
+        <v>119.063875933238</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.88238182846748</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.682048131334369</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.7598958812258</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.00578197858113952</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.201559773338524</v>
+      </c>
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="n">
+        <v>587.569680618029</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.08360591511301</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.758761434377373</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.74606196455251</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00603153704643429</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.204255784577384</v>
+      </c>
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="n">
+        <v>127.430970659499</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.80176440299764</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.655675724443525</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.74795045146259</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.00599690708386912</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.204255784577384</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.1445808918868</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.80841662075339</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.38911260998782</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.74161834927609</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.00611373317398986</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.205917621686267</v>
+      </c>
+      <c r="H164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="n">
+        <v>52.1734488434763</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.52397120459359</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.29262154955075</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.72622037426062</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.00640642092801456</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.213710845502955</v>
+      </c>
+      <c r="H165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="n">
+        <v>141.908532107272</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.07151776468205</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.13170093621316</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.71407194815956</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0066461729937139</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.217226898248423</v>
+      </c>
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="n">
+        <v>191.157705692141</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.72387011526536</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.00316617571216</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.71527308357625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.00662211401733699</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.217226898248423</v>
+      </c>
+      <c r="H167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66.2551323394125</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.35209227966271</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.866726286659554</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.71376594418049</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.00665231486063276</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.217226898248423</v>
+      </c>
+      <c r="H168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="n">
+        <v>136.467723266875</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3.13287561365188</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.16852986085764</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.68104026999577</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00733936831964942</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.23682040987569</v>
+      </c>
+      <c r="H169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="n">
+        <v>535.968444743312</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.23385601325658</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.460461965176791</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.67960462876201</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00737091637163293</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.23682040987569</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="n">
+        <v>194.395433736385</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.65278302711667</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.995142211672976</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.66573259178401</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.00768207707725796</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.243452006284739</v>
+      </c>
+      <c r="H171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="n">
+        <v>52.9801921228939</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.77418918101832</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.04577405361925</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.65276153239536</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00798362522453874</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.250633568318385</v>
+      </c>
+      <c r="H172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="n">
+        <v>98.0217473103209</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.88130516209609</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.711608115939538</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.64373764148572</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0081996184399578</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.255213123943687</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="n">
+        <v>46.2017750039842</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.09976129442984</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.1763027035326</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.63517314473631</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.00840943741795867</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.259427423354017</v>
+      </c>
+      <c r="H174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37.7712995776921</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.91406398964131</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.1056886123554</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.63551958216662</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.00840085783183129</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.259427423354017</v>
+      </c>
+      <c r="H175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" t="n">
+        <v>472.930993842863</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.97971899111049</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.90162025084115</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.61867162432026</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00882728753185139</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.268049530931969</v>
+      </c>
+      <c r="H176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>25.7787010316776</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.70648737812169</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.80401257505878</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.60889942963305</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.00908339337702344</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.271800079933937</v>
+      </c>
+      <c r="H177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="n">
+        <v>57.4951556161098</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.38791807521738</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.916623085017609</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.60512539368513</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00918406414618999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.272473596711645</v>
+      </c>
+      <c r="H178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1693.7088740385</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.69568793783552</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.652895510212663</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.59718118950335</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0093992328726039</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.277675642321163</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="n">
+        <v>103.208834071632</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.88987190910534</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.12269177673485</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.57405636078499</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0100513898207931</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.294446595926762</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="n">
+        <v>330.567623655766</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.17509416444438</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.45703614961044</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.57111864224741</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0101370592456591</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.295713711551195</v>
+      </c>
+      <c r="H181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="n">
+        <v>542.707200921557</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.04964673418586</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.40933306669967</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.56428522290869</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0103388544583825</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.299097482505571</v>
+      </c>
+      <c r="H182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="n">
+        <v>16.9334548035636</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.46712280852194</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.74558202909586</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.55910219861494</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0104942885113226</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.302339584714633</v>
+      </c>
+      <c r="H183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>191</v>
+      </c>
+      <c r="B184" t="n">
+        <v>125.923553218138</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.97084669971658</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.771161613925443</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.55568568783446</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0105978799326945</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.304067567451629</v>
+      </c>
+      <c r="H184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" t="n">
+        <v>90.9026072924089</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.5907860576799</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.02385054286072</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.53043383699445</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0113921568397332</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.322870396287073</v>
+      </c>
+      <c r="H185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="n">
+        <v>164.950478752173</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.57230982647222</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.622382239178784</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.52627682394479</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0115278605991134</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.324474274040254</v>
+      </c>
+      <c r="H186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="n">
+        <v>217.587020138766</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.4332557253863</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.974994095574614</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.49566201111429</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0125722329306245</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.349217561722366</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>195</v>
+      </c>
+      <c r="B188" t="n">
+        <v>227.772882515882</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.59396922311713</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.04208327551589</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.48921490639313</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0128025551696334</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.354003326494049</v>
+      </c>
+      <c r="H188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" t="n">
+        <v>281.971792044182</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.1998789773866</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.484252362445725</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.4777968481694</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0132196390835326</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.35723768872244</v>
+      </c>
+      <c r="H189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.3905439991923</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.48372416442293</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.41412197959616</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.4635245153447</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0137578486647407</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.370346412704911</v>
+      </c>
+      <c r="H190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" t="n">
+        <v>91.9916993528502</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.54370046956583</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.03566609675315</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.45610093594877</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0140453701360911</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.37663200226472</v>
+      </c>
+      <c r="H191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" t="n">
+        <v>47.1760494225349</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.56653482800622</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.04643207537978</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.45265305641051</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0141807037048661</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.377358268054682</v>
+      </c>
+      <c r="H192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="n">
+        <v>62.7633270958404</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.11533231947082</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.862426074242476</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.45276944035911</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0141761167928084</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.377358268054682</v>
+      </c>
+      <c r="H193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27.8437988257757</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.40521265120043</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.80740284279272</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.43731643378058</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0147967247418604</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.38493568992631</v>
+      </c>
+      <c r="H194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="n">
+        <v>23.0169384144569</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.5389300230475</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.88241171929043</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.41123128194211</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0158987628596658</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.404548082691933</v>
+      </c>
+      <c r="H195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>203</v>
+      </c>
+      <c r="B196" t="n">
+        <v>23.1274716304749</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.54628765825456</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.4693398980623</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.4135243744019</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0157990711106881</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.404548082691933</v>
+      </c>
+      <c r="H196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1223.14936295369</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.38349070500132</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.41622201320594</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.38909625288342</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.0168898767346999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.417575250334494</v>
+      </c>
+      <c r="H197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" t="n">
+        <v>92.1887786290626</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.63622153288978</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.10756972004465</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.38018563091766</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0173039186710056</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.424799017514969</v>
+      </c>
+      <c r="H198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" t="n">
+        <v>397.150988427401</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.2540236502574</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.527383519787909</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.37782107935741</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0174152738516992</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.4260325940142</v>
+      </c>
+      <c r="H199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" t="n">
+        <v>36.5121232673513</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.70907093508193</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.14147012601827</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.37331742051966</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.0176291064293391</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.429136640760039</v>
+      </c>
+      <c r="H200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" t="n">
+        <v>176.943899093848</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.42368654016711</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.600063289695732</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.37256063587726</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.0176652633244594</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.429136640760039</v>
+      </c>
+      <c r="H201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>209</v>
+      </c>
+      <c r="B202" t="n">
+        <v>39.5626174425116</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.11067937298683</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.7364492919208</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.36729018930334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0179188767438506</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.430794512614228</v>
+      </c>
+      <c r="H202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" t="n">
+        <v>980.040051688883</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9.05066274446937</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.83397046047431</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.36065009831862</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0182429341245853</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.432047855487225</v>
+      </c>
+      <c r="H203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>211</v>
+      </c>
+      <c r="B204" t="n">
+        <v>69.3793192971496</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.98646141205253</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.84176379001699</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.35987985657168</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0182808544705582</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.432047855487225</v>
+      </c>
+      <c r="H204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>212</v>
+      </c>
+      <c r="B205" t="n">
+        <v>24.9415000957348</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.40313400238628</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.4506564824172</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.3459268570018</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.018979831673235</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.443077806064738</v>
+      </c>
+      <c r="H205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" t="n">
+        <v>319.713703551176</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.93121919858306</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.823373316314902</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.34549645988826</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0190017590380603</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.443077806064738</v>
+      </c>
+      <c r="H206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" t="n">
+        <v>171.061504097988</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.38150095910475</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.589513713816319</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.34345856038083</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0191058845410233</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.444020756733381</v>
+      </c>
+      <c r="H207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" t="n">
+        <v>39.2147896104135</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.87374643615242</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.22876525298513</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.33872696934669</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0193495684562329</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.445928423400975</v>
+      </c>
+      <c r="H208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209" t="n">
+        <v>152.208226798741</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.48207579106334</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.633361858871094</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.34001427510176</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.0192830028345432</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.445928423400975</v>
+      </c>
+      <c r="H209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>217</v>
+      </c>
+      <c r="B210" t="n">
+        <v>51.131054539299</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.20552479200042</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.944856893825178</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.33424215499083</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.0195830457223992</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.447020493988188</v>
+      </c>
+      <c r="H210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" t="n">
+        <v>55.5739688412584</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.26849716984721</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.977044850199824</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.32179430594538</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.0202440140085286</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.452375851498273</v>
+      </c>
+      <c r="H211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1684.91672086399</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.67734123563327</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.03690711320823</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.2962957934131</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.0216589744668088</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.477346644687266</v>
+      </c>
+      <c r="H212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" t="n">
+        <v>209.875939742326</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.36809798682278</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.595988163497302</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.2955120094914</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.0217037989624015</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.477346644687266</v>
+      </c>
+      <c r="H213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" t="n">
+        <v>19.304888534509</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.56935648102859</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.55651687818707</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.29316914647655</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.021838268710127</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.478793740399388</v>
+      </c>
+      <c r="H214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" t="n">
+        <v>30.6565436251329</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.74667664581742</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.20379269325702</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.28168575968503</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.0225078994112749</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.484336650294471</v>
+      </c>
+      <c r="H215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" t="n">
+        <v>89.7993853989669</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.72092697658031</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.753605666191174</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.28359081385111</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.022395590160856</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.484336650294471</v>
+      </c>
+      <c r="H216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" t="n">
+        <v>90.2373215609521</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.6770592271221</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.735007446119965</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.28169011888945</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0225076418639292</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.484336650294471</v>
+      </c>
+      <c r="H217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>225</v>
+      </c>
+      <c r="B218" t="n">
+        <v>84.7804599840829</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.42681875991757</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.06817571008942</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.27192842618976</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.0230908336660919</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.492321994862363</v>
+      </c>
+      <c r="H218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" t="n">
+        <v>499.500569226433</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.02710642270574</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.451904824767623</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.27283792164399</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.0230359488823918</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.492321994862363</v>
+      </c>
+      <c r="H219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" t="n">
+        <v>74.7710646337819</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.2340367109409</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.985182980768614</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.26763632193277</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.0233513819554881</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.494850562290768</v>
+      </c>
+      <c r="H220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" t="n">
+        <v>40.2519899692723</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.39176880810087</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.05537986526052</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.26626344393112</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.0234352582167893</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.495123091780168</v>
+      </c>
+      <c r="H221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" t="n">
+        <v>40.2043826935624</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.79370337025768</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.24038135806602</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.25229390307314</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.0243037052028448</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.508845143165868</v>
+      </c>
+      <c r="H222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" t="n">
+        <v>58.4265619445461</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.32786651968581</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.48674178155281</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.23836214262443</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.0251974486867999</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.516066723031559</v>
+      </c>
+      <c r="H223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" t="n">
+        <v>24.4638033536048</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.01372925417988</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.3461954275924</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.23870115171152</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0251753675520782</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.516066723031559</v>
+      </c>
+      <c r="H224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" t="n">
+        <v>29.9071653047677</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.87380717409155</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.28426970391843</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.23769755318785</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.025240784933127</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.516066723031559</v>
+      </c>
+      <c r="H225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" t="n">
+        <v>25.2149129890762</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.56699183880938</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.05005803056561</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.22773783508428</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.025898002433478</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.524859632660261</v>
+      </c>
+      <c r="H226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" t="n">
+        <v>208.756569698031</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.1765679890673</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.529610140691736</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.22157375523543</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.0263121251498827</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.528668981397643</v>
+      </c>
+      <c r="H227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" t="n">
+        <v>520.437458218131</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.02720833555765</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.462263577125738</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.22212691284186</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.0262747299553545</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.528668981397643</v>
+      </c>
+      <c r="H228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" t="n">
+        <v>76.5921103083519</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.56297205566799</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.15466623196856</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.21966485613634</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0264415261564519</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.529742299893053</v>
+      </c>
+      <c r="H229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="n">
+        <v>151.93873898593</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.62519138492443</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.737351993259549</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.20409166826835</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.027517897982923</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.548156527819826</v>
+      </c>
+      <c r="H230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" t="n">
+        <v>732.094139811769</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.30964266025547</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.59554645629546</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.19906045349002</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.0278736240177193</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.552087802987326</v>
+      </c>
+      <c r="H231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" t="n">
+        <v>30.9641561173634</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.61406094525301</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.19317075813343</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.19085233813673</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.0284624797377165</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.557510057188657</v>
+      </c>
+      <c r="H232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" t="n">
+        <v>116.440363714528</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.40672805008641</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.09965707487414</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.18861689255431</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0286246969814559</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.557510057188657</v>
+      </c>
+      <c r="H233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" t="n">
+        <v>19.5534047525809</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.37383800843313</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.54590252454013</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.18243903148859</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.0290771463215344</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.561567490730576</v>
+      </c>
+      <c r="H234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" t="n">
+        <v>204.451418753271</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8.04825260068246</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.69406077641134</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.17870064620352</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0293539137314458</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.565346647888508</v>
+      </c>
+      <c r="H235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" t="n">
+        <v>234.532175135434</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.10507520336728</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.507824922040672</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.17609486144671</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.0295481680800502</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.565934922972448</v>
+      </c>
+      <c r="H236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" t="n">
+        <v>65.842459888634</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.01178987329782</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.933030097154504</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.15618968716363</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.0310688564924156</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.574567818209871</v>
+      </c>
+      <c r="H237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" t="n">
+        <v>17.7162109271576</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.4137104340466</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2.04954803134693</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.15350426852206</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.031279068988786</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.575402820553605</v>
+      </c>
+      <c r="H238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" t="n">
+        <v>15.6793847147556</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.55645169553163</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.12214588948604</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.14709635096536</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.0317856117571723</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.580997799308306</v>
+      </c>
+      <c r="H239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" t="n">
+        <v>44.4451114977767</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.47998495637104</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.15429128616418</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.14849144760702</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0316747350771985</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.580997799308306</v>
+      </c>
+      <c r="H240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" t="n">
+        <v>50.2436932168799</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.10487242654096</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.982971558868354</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.14133604126268</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.0322469486640117</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.585483661680963</v>
+      </c>
+      <c r="H241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1135.13582216207</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.67574865993348</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.73419848773613</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.11956629297486</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0340426375877194</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>250</v>
+      </c>
+      <c r="B243" t="n">
+        <v>31.4714009965726</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.86832098715317</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.3498630499054</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.12489777192893</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.0335951439351593</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" t="n">
+        <v>26.3343749822569</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.75030470065596</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.29647178376282</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.12137644266627</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.0338901360717</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245" t="n">
+        <v>171.868514773862</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.55057632831915</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.729171218067563</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2.12649140544585</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0334623641246336</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" t="n">
+        <v>144.488645668053</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.28599198728291</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.607473044806751</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.11695316899536</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0342638225327958</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247" t="n">
+        <v>228.944902165024</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.09757439256494</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.518430477933454</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2.11711008376676</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.034250506084328</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.600219524368473</v>
+      </c>
+      <c r="H247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>255</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1879.11241300882</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.14102002501483</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.540257182376752</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.11199418024421</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.0346869484712977</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.606108783814255</v>
+      </c>
+      <c r="H248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>256</v>
+      </c>
+      <c r="B249" t="n">
+        <v>21.645497572992</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.02755810924681</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.4409931320914</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.10102188679605</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.0356390450133145</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.616564322165828</v>
+      </c>
+      <c r="H249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>257</v>
+      </c>
+      <c r="B250" t="n">
+        <v>18.2697865266936</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.42783830966616</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.63366346749319</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.09825241114443</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.0358828539674606</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.617354773702607</v>
+      </c>
+      <c r="H250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" t="n">
+        <v>43.8337161794654</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2.77814856573304</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.325114507169</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2.09653471507782</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.0360347837354938</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.617354773702607</v>
+      </c>
+      <c r="H251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>259</v>
+      </c>
+      <c r="B252" t="n">
+        <v>17.2963339038031</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.38470577771557</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.61866059756373</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.09105341960504</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.0365232756098754</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.624118327333459</v>
+      </c>
+      <c r="H252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" t="n">
+        <v>38.55232438618</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.23974205103513</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.07518859718381</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.08311551750231</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.0372406952697981</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.634821827435287</v>
+      </c>
+      <c r="H253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" t="n">
+        <v>34.5695024474428</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.79106102891044</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.83599789448634</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.06485042292005</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0389371552166378</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.655724266112075</v>
+      </c>
+      <c r="H254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" t="n">
+        <v>64.0052660632108</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.1343489923658</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.03582716088343</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.06052618908495</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.0393482648451696</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.65797078064826</v>
+      </c>
+      <c r="H255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256" t="n">
+        <v>84.2550682424573</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.75622912401529</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.85293520073117</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.05904167457244</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.0394902463913077</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.658674635981334</v>
+      </c>
+      <c r="H256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" t="n">
+        <v>28.9581545974238</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.59643506239733</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.26828891838398</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.04719526029262</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.0406389166274832</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.661996557772928</v>
+      </c>
+      <c r="H257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" t="n">
+        <v>224.949039585403</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.06866184859374</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.522434078966168</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.04554390997711</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.040801264821635</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.663091884234124</v>
+      </c>
+      <c r="H258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" t="n">
+        <v>48.4077759468398</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.30559743006497</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.12778422722626</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.04436041434582</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.0409179549444</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.663441818307806</v>
+      </c>
+      <c r="H259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" t="n">
+        <v>16.7941952461266</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.33454146458796</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.63583463955029</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.0384343160166</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.0415065173727556</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.66678211779459</v>
+      </c>
+      <c r="H260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" t="n">
+        <v>64.4131993283937</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.74578533603429</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.861061502161765</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.02748041998319</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.0426133048729841</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.678310414553528</v>
+      </c>
+      <c r="H261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" t="n">
+        <v>413.565007651844</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.57427030009228</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.76920261349099</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.02027188567144</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.0433551933518611</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.682330492210329</v>
+      </c>
+      <c r="H262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" t="n">
+        <v>88.5593574193739</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.88856348952865</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.934179565562596</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.02162791731726</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.0432148057141338</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.682330492210329</v>
+      </c>
+      <c r="H263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" t="n">
+        <v>252.945784957588</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.00108339793514</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.495015534606053</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.02232723611762</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.043142556693706</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.682330492210329</v>
+      </c>
+      <c r="H264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265" t="n">
+        <v>79.3153011770253</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.67793891440626</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.831236779709308</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.01860523423067</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.0435282665684198</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.683511429087889</v>
+      </c>
+      <c r="H265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266" t="n">
+        <v>22.989488628421</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.02701793698996</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.51741748143036</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.99484846723698</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.0460594094055713</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>274</v>
+      </c>
+      <c r="B267" t="n">
+        <v>51.3096199171578</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.1958985442024</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.09901996014689</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.99805155850756</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.0457110707198369</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>275</v>
+      </c>
+      <c r="B268" t="n">
+        <v>108.404413876598</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.04529661958694</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.02287520711605</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.99955635385235</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.0455481909228861</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>276</v>
+      </c>
+      <c r="B269" t="n">
+        <v>46.4198335655309</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.98326365356613</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.99219055398775</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.99887375020365</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.0456220155720364</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" t="n">
+        <v>63.2539767550682</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.91714647151722</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.959735140567946</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.99757869695456</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0457623547129695</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>278</v>
+      </c>
+      <c r="B271" t="n">
+        <v>53.4480434578956</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.84881176020315</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.922852743076017</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.00336594768171</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.0451380236939593</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" t="n">
+        <v>95.762490386714</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.43051105583321</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.713994013194598</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.00353368431302</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.0451200358148762</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.692082332706127</v>
+      </c>
+      <c r="H272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>280</v>
+      </c>
+      <c r="B273" t="n">
+        <v>23.959111585162</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.82348824100391</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.41758124397578</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.99176467169183</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.0463968841656938</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.694444687608498</v>
+      </c>
+      <c r="H273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" t="n">
+        <v>71.7477451576057</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.61373538609028</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.812023680088325</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.987300894864</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.0468890625716627</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.697037407781732</v>
+      </c>
+      <c r="H274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>282</v>
+      </c>
+      <c r="B275" t="n">
+        <v>112.338084587785</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.34903595985912</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.681524669506722</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.97943819236292</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.0477666920403759</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.704079020941862</v>
+      </c>
+      <c r="H275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" t="n">
+        <v>34.4285115748996</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2.45387633764369</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.24419290622849</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.97226356568942</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.0485795265514703</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.710055469846648</v>
+      </c>
+      <c r="H276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>284</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50.9866887603292</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.90473814500667</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.967832410706009</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.96804542184862</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.0490628117154547</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.711155765655198</v>
+      </c>
+      <c r="H277" t="s">
         <v>9</v>
       </c>
     </row>
